--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
@@ -1712,7 +1712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  라이타니엔 각 도시에 우뚝 솟은 탑에서 평민들 깔보고 사는 대귀족 놈 중 한 놈만 털어도, 우리 모두가 배불리 먹고 마실 수 있을 텐데.
+    <t xml:space="preserve">[name="살카즈 전사"]  라이타니아 각 도시에 우뚝 솟은 탑에서 평민들 깔보고 사는 대귀족 놈 중 한 놈만 털어도, 우리 모두가 배불리 먹고 마실 수 있을 텐데.
 </t>
   </si>
   <si>
@@ -1720,7 +1720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  하지만 그 오만함 덕분에 라이타니엔의 추악한 침략 본능이 억제될 수 있었지.
+    <t xml:space="preserve">[name="살카즈 전사"]  하지만 그 오만함 덕분에 라이타니아의 추악한 침략 본능이 억제될 수 있었지.
 </t>
   </si>
   <si>
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="그레이스롯"]  ……게다가 나도 진상이 어떠한들, '리유니온이 다시 나타나 라이타니엔의 마을을 괴멸시키는' 그런 일은……
+    <t xml:space="preserve">[name="그레이스롯"]  ……게다가 나도 진상이 어떠한들, '리유니온이 다시 나타나 라이타니아의 마을을 괴멸시키는' 그런 일은……
 </t>
   </si>
   <si>
@@ -1928,7 +1928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="붙잡힌 감염자"]  웃기지 마…… 난 라이타니엔인이야, 고등 교육을 받은 라이타니엔인이란 말이다. 그런데 어떻게……
+    <t xml:space="preserve">[name="붙잡힌 감염자"]  웃기지 마…… 난 라이타니아인이야, 고등 교육을 받은 라이타니아인이란 말이다. 그런데 어떻게……
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="할아버지"]  우린 라이타니엔을, 라이타니엔의 법을, 이동도시의 엔진에서 나는 굉음을, 결국 꺾지 못한 게다……
+    <t xml:space="preserve">[name="할아버지"]  우린 라이타니아을, 라이타니아의 법을, 이동도시의 엔진에서 나는 굉음을, 결국 꺾지 못한 게다……
 </t>
   </si>
   <si>
@@ -2100,7 +2100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]  비더만은 라이타니엔의 한 재앙정보전달자의 이름이잖아요. 그 사람은 분명 화재에 희생되었던 게……
+    <t xml:space="preserve">[name="스즈란"]  비더만은 라이타니아의 한 재앙정보전달자의 이름이잖아요. 그 사람은 분명 화재에 희생되었던 게……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  The number of Infected people who lost their lives in the fire was “four,” according to the Reunion member we spoke to.
+    <t xml:space="preserve">[name="GreyThroat"]  The number of Infected people who lost their lives in the fire was 'four,' according to the Reunion member we spoke to.
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  With all due respect, this does matter. “Caring” what he says is different from “trusting” it. We have a major risk of misunderstanding here.
+    <t xml:space="preserve">[name="GreyThroat"]  With all due respect, this does matter. 'Caring' what he says is different from 'trusting' it. We have a major risk of misunderstanding here.
 </t>
   </si>
   <si>
@@ -1300,7 +1300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  And regardless of what the truth may be, headlines around the world would read “Reunion resurfaces and destroys a town in Leithania.”
+    <t xml:space="preserve">[name="GreyThroat"]  And regardless of what the truth may be, headlines around the world would read 'Reunion resurfaces and destroys a town in Leithania.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
@@ -1136,11 +1136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We’re going to let them use us for nothing?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  What’s gonna happen if they really start calling themselves Reunion?
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We're going to let them use us for nothing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  What's gonna happen if they really start calling themselves Reunion?
 </t>
   </si>
   <si>
@@ -1148,15 +1148,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  We’ll be hunted down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  A town of this size can’t do anything to us. But... What if it was an entire nomadic city?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  If we took just one of the big Leithanien bankers, musicians, or aristocrats out of their fancy towers, we’d be set for life.
+    <t xml:space="preserve">[name="Mudrock"]  We'll be hunted down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  A town of this size can't do anything to us. But... What if it was an entire nomadic city?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  If we took just one of the big Leithanien bankers, musicians, or aristocrats out of their fancy towers, we'd be set for life.
 </t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  It’s the same pride that keeps Leithania’s aggressive streak in check.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  It's the same pride that keeps Leithania's aggressive streak in check.
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  Ugh... I’ve got a bad feeling about this.
+    <t xml:space="preserve">[name="Click"]  Ugh... I've got a bad feeling about this.
 </t>
   </si>
   <si>
@@ -1208,7 +1208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Body type, sex, approximate age, a list of the town’s missing persons.
+    <t xml:space="preserve">[name="Severin"]  Body type, sex, approximate age, a list of the town's missing persons.
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I don’t disagree, but...
+    <t xml:space="preserve">[name="GreyThroat"]  I don't disagree, but...
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I still don’t think this will solve the problem. Uncovering the truth about the fire will not improve our situation.
+    <t xml:space="preserve">[name="Severin"]  I still don't think this will solve the problem. Uncovering the truth about the fire will not improve our situation.
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Then, with all due respect, Miss Folinic, you’ve been letting your emotions pull you around too much.
+    <t xml:space="preserve">[name="Severin"]  Then, with all due respect, Miss Folinic, you've been letting your emotions pull you around too much.
 </t>
   </si>
   <si>
@@ -1252,7 +1252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I fight for Wolumonde and Wolumonde alone. That is my duty. I’m not here to serve the justice in your heart.
+    <t xml:space="preserve">[name="Severin"]  I fight for Wolumonde and Wolumonde alone. That is my duty. I'm not here to serve the justice in your heart.
 </t>
   </si>
   <si>
@@ -1264,15 +1264,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  —No, you’re right...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I need to go calm down... I, I’ll go help Lisa with the wounded.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Then it’s settled. Our top priority is to retake Zwölftontechnik Strasse.
+    <t xml:space="preserve">[name="Folinic"]  —No, you're right...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I need to go calm down... I, I'll go help Lisa with the wounded.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Then it's settled. Our top priority is to retake Zwölftontechnik Strasse.
 </t>
   </si>
   <si>
@@ -1308,11 +1308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Ayerscarpe, contact Click. It’s time to regroup.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I’m going to check on the Infected captives.
+    <t xml:space="preserve">[name="GreyThroat"]  Ayerscarpe, contact Click. It's time to regroup.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  I'm going to check on the Infected captives.
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  They’re getting loud out there.
+    <t xml:space="preserve">[name="Severin"]  They're getting loud out there.
 </t>
   </si>
   <si>
@@ -1356,11 +1356,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Uncle, you really shouldn’t smoke...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Doesn’t matter.
+    <t xml:space="preserve">[name="Tatjana"]  Uncle, you really shouldn't smoke...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Doesn't matter.
 </t>
   </si>
   <si>
@@ -1368,11 +1368,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  That being said, you still have a mild infection. So don’t go abusing Originium Arts!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Captive"]  Is that a joke? I’m a Leithanien. An educated Leithanien. How could I—
+    <t xml:space="preserve">[name="Suzuran"]  That being said, you still have a mild infection. So don't go abusing Originium Arts!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Captive"]  Is that a joke? I'm a Leithanien. An educated Leithanien. How could I—
 </t>
   </si>
   <si>
@@ -1380,11 +1380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Captive"]  No, it’s not about fighting. Without Arts, I can’t even use my refrigerator!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  You just use it normally, through the device. Don’t irritate the Originium in your body. That way, you don’t worsen your infection!
+    <t xml:space="preserve">[name="Infected Captive"]  No, it's not about fighting. Without Arts, I can't even use my refrigerator!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  You just use it normally, through the device. Don't irritate the Originium in your body. That way, you don't worsen your infection!
 </t>
   </si>
   <si>
@@ -1396,15 +1396,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Captive"]  Y-you’re an outsider! What do you know? Will I ever get to lead a normal life? With what we’re fighting against, we—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Okay, okay. Just remember to take care of yourself so you don’t get worse. You’re still pretty healthy. And no more using Arts!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Captive"]  We’re fighting against... Never mind. What can I say to a child...?
+    <t xml:space="preserve">[name="Infected Captive"]  Y-you're an outsider! What do you know? Will I ever get to lead a normal life? With what we're fighting against, we—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Okay, okay. Just remember to take care of yourself so you don't get worse. You're still pretty healthy. And no more using Arts!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Captive"]  We're fighting against... Never mind. What can I say to a child...?
 </t>
   </si>
   <si>
@@ -1412,31 +1412,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Oh, an old man? What’s he doing here at his age...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  Heh heh. A nine-tailed Vulpo. That’s something you don’t see every day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  Hm. That reminds me. I’ve been hearing a lot of talk of Winterwisps and outlanders. Would that be you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Oh, yes. Can you tell me where you’re hurt?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  Hm? Oh, I’m not hurt. I’m just here to wait for death. I’m old, and getting sleepy...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  D-death? Let’s not get too morbid here...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  Child, I’m a Winterwisp. Last of the Winterwisp clansmen, in fact.
+    <t xml:space="preserve">[name="Suzuran"]  Oh, an old man? What's he doing here at his age...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  Heh heh. A nine-tailed Vulpo. That's something you don't see every day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  Hm. That reminds me. I've been hearing a lot of talk of Winterwisps and outlanders. Would that be you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Oh, yes. Can you tell me where you're hurt?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  Hm? Oh, I'm not hurt. I'm just here to wait for death. I'm old, and getting sleepy...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  D-death? Let's not get too morbid here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  Child, I'm a Winterwisp. Last of the Winterwisp clansmen, in fact.
 </t>
   </si>
   <si>
@@ -1444,27 +1444,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"]  Heh heh. You're awfully cute when you're shocked, child… And, I sense no hostility from you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  The last...? But everyone’s been saying the Winterwisps are helping the Infected rebels.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  *Sigh*. It’s only when they’re so filled with hate that they think of their heritage. And that heritage is just an excuse. They hate something else altogether.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  Would you indulge an old man for a minute? I’m already your prisoner, after all. I’m not going to do anything... ever again. I’m too old.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Oh, um... As old as you are, I should treat you. Even if it’s just a flesh wound.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  Hah hah. I’m still pretty strong, in my old age... No, no. That’s a lie.
+    <t xml:space="preserve">[name="Old Man"]  Heh heh. You're awfully cute when you're shocked, child... And, I sense no hostility from you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  The last...? But everyone's been saying the Winterwisps are helping the Infected rebels.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  *Sigh*. It's only when they're so filled with hate that they think of their heritage. And that heritage is just an excuse. They hate something else altogether.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  Would you indulge an old man for a minute? I'm already your prisoner, after all. I'm not going to do anything... ever again. I'm too old.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Oh, um... As old as you are, I should treat you. Even if it's just a flesh wound.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  Hah hah. I'm still pretty strong, in my old age... No, no. That's a lie.
 </t>
   </si>
   <si>
@@ -1496,39 +1496,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"]  But vengeance. We couldn’t kill the traitors. We couldn’t kill the rotten nobles. It turns out, we could only unleash our hatred on so many innocents.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  We couldn’t defeat Leithania. Not its laws, not the mighty roar of the engines of its nomadic cities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  We started giving up. I escaped into Wolumonde, and Severin picked off the other old clansmen one by one. He’s a hunter. Never wavers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  But they say he’ll sit with a dying enemy and have one last smoke with him. Too bad today’s manufactured cigarettes are awful.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  As for me, I built myself a nest out of scavenged tin, underneath Wolumonde. Severin didn’t get the last one, in the end.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  Am I afraid to die? Nay. Believe me, little Vulpo girl, I’m not afraid.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  I just want to hear the sound of a town’s power plant roaring to life, after my own lifetime of fruitless revenge.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  Maybe someday Wolumonde will grow into a nomadic city, or maybe it’ll die out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  But... Hah... I’m a Winterwisp. Was I furious the first time I saw that boiler heat up and send the town crawling away? Yes, but what could I do? I remember it. I just cried.
+    <t xml:space="preserve">[name="Old Man"]  But vengeance. We couldn't kill the traitors. We couldn't kill the rotten nobles. It turns out, we could only unleash our hatred on so many innocents.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  We couldn't defeat Leithania. Not its laws, not the mighty roar of the engines of its nomadic cities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  We started giving up. I escaped into Wolumonde, and Severin picked off the other old clansmen one by one. He's a hunter. Never wavers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  But they say he'll sit with a dying enemy and have one last smoke with him. Too bad today's manufactured cigarettes are awful.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  As for me, I built myself a nest out of scavenged tin, underneath Wolumonde. Severin didn't get the last one, in the end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  Am I afraid to die? Nay. Believe me, little Vulpo girl, I'm not afraid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  I just want to hear the sound of a town's power plant roaring to life, after my own lifetime of fruitless revenge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  Maybe someday Wolumonde will grow into a nomadic city, or maybe it'll die out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  But... Hah... I'm a Winterwisp. Was I furious the first time I saw that boiler heat up and send the town crawling away? Yes, but what could I do? I remember it. I just cried.
 </t>
   </si>
   <si>
@@ -1536,11 +1536,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"]  But Biederman did it, treacherous boy. A Catastrophe Messenger, and an outsider, did what I’d never dare to do in my entire life...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  S-slow down, sir! Th-that Biederman you’re talking about...
+    <t xml:space="preserve">[name="Old Man"]  But Biederman did it, treacherous boy. A Catastrophe Messenger, and an outsider, did what I'd never dare to do in my entire life...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  S-slow down, sir! Th-that Biederman you're talking about...
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"]  Hm? I’m not sure about that. He’s the one giving the orders.
+    <t xml:space="preserve">[name="Old Man"]  Hm? I'm not sure about that. He's the one giving the orders.
 </t>
   </si>
   <si>
@@ -1568,7 +1568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"]  It turns out the thing that conquered us all those years ago was just a big hunk of iron... How weary I’ve become.
+    <t xml:space="preserve">[name="Old Man"]  It turns out the thing that conquered us all those years ago was just a big hunk of iron... How weary I've become.
 </t>
   </si>
   <si>
@@ -1576,15 +1576,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Yes, I’m listening.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  Don’t rush to revenge. Don’t fight. Listen to me, girl.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"]  The Winterwisps aren’t the reason for all this... At least, not anymore.
+    <t xml:space="preserve">[name="Suzuran"]  Yes, I'm listening.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  Don't rush to revenge. Don't fight. Listen to me, girl.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"]  The Winterwisps aren't the reason for all this... At least, not anymore.
 </t>
   </si>
   <si>
@@ -1592,11 +1592,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"]  Winterwisp, Winterwisp is Wolumonde... It’s the moon... And they, they destroyed themselves...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  So that’s the story.
+    <t xml:space="preserve">[name="Old Man"]  Winterwisp, Winterwisp is Wolumonde... It's the moon... And they, they destroyed themselves...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  So that's the story.
 </t>
   </si>
   <si>
@@ -1604,7 +1604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Up ahead? It’s an ordinary road. It leads to the town hall.
+    <t xml:space="preserve">[name="Suzuran"]  Up ahead? It's an ordinary road. It leads to the town hall.
 </t>
   </si>
   <si>
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  We’ve been going in circles.
+    <t xml:space="preserve">[name="Suzuran"]  We've been going in circles.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_end.xlsx
@@ -1712,7 +1712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  라이타니아 각 도시에 우뚝 솟은 탑에서 평민들 깔보고 사는 대귀족 놈 중 한 놈만 털어도, 우리 모두가 배불리 먹고 마실 수 있을 텐데.
+    <t xml:space="preserve">[name="살카즈 전사"]  라이타니엔 각 도시에 우뚝 솟은 탑에서 평민들 깔보고 사는 대귀족 놈 중 한 놈만 털어도, 우리 모두가 배불리 먹고 마실 수 있을 텐데.
 </t>
   </si>
   <si>
@@ -1720,7 +1720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  하지만 그 오만함 덕분에 라이타니아의 추악한 침략 본능이 억제될 수 있었지.
+    <t xml:space="preserve">[name="살카즈 전사"]  하지만 그 오만함 덕분에 라이타니엔의 추악한 침략 본능이 억제될 수 있었지.
 </t>
   </si>
   <si>
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="그레이스롯"]  ……게다가 나도 진상이 어떠한들, '리유니온이 다시 나타나 라이타니아의 마을을 괴멸시키는' 그런 일은……
+    <t xml:space="preserve">[name="그레이스롯"]  ……게다가 나도 진상이 어떠한들, '리유니온이 다시 나타나 라이타니엔의 마을을 괴멸시키는' 그런 일은……
 </t>
   </si>
   <si>
@@ -1928,7 +1928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="붙잡힌 감염자"]  웃기지 마…… 난 라이타니아인이야, 고등 교육을 받은 라이타니아인이란 말이다. 그런데 어떻게……
+    <t xml:space="preserve">[name="붙잡힌 감염자"]  웃기지 마…… 난 라이타니엔인이야, 고등 교육을 받은 라이타니엔인이란 말이다. 그런데 어떻게……
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="할아버지"]  우린 라이타니아을, 라이타니아의 법을, 이동도시의 엔진에서 나는 굉음을, 결국 꺾지 못한 게다……
+    <t xml:space="preserve">[name="할아버지"]  우린 라이타니엔을, 라이타니엔의 법을, 이동도시의 엔진에서 나는 굉음을, 결국 꺾지 못한 게다……
 </t>
   </si>
   <si>
@@ -2100,7 +2100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]  비더만은 라이타니아의 한 재앙정보전달자의 이름이잖아요. 그 사람은 분명 화재에 희생되었던 게……
+    <t xml:space="preserve">[name="스즈란"]  비더만은 라이타니엔의 한 재앙정보전달자의 이름이잖아요. 그 사람은 분명 화재에 희생되었던 게……
 </t>
   </si>
   <si>
